--- a/sample/openpyxl/shopping.xlsx
+++ b/sample/openpyxl/shopping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katsuhisakitano/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katsuhisakitano/PycharmProjects/sample/openpyxl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B2D4701-038C-4943-843E-941EA2AA2EE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE38798-149F-D04D-A41D-DD606F2FA8C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="460" windowWidth="24560" windowHeight="15000" xr2:uid="{4BBDC1DF-168B-D34F-A978-17DE5263157C}"/>
   </bookViews>
@@ -419,7 +419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093D3AF2-DEC2-7C44-BA8C-EE50CDA51A42}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
